--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kunhee\Desktop\질병입력system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kunhee\Desktop\kdca-covid19-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31181B2A-F1C7-4D1D-974B-361681E39AB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534C4C53-66C9-4F47-ACBC-33E43FDFE78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>성명</t>
   </si>
@@ -104,6 +104,81 @@
   </si>
   <si>
     <t>환자소속기관명</t>
+  </si>
+  <si>
+    <t>KANG XIN</t>
+  </si>
+  <si>
+    <t>860402-5760033</t>
+  </si>
+  <si>
+    <t>각골로33</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>2020 12 25</t>
+  </si>
+  <si>
+    <t>2021 01 07</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>권회태</t>
+  </si>
+  <si>
+    <t>아랍에미리트</t>
+  </si>
+  <si>
+    <t>0000 00 00</t>
+  </si>
+  <si>
+    <t>박복순</t>
+  </si>
+  <si>
+    <t>560505-6820036</t>
+  </si>
+  <si>
+    <t>각골로 3길 8</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>안윤식</t>
+  </si>
+  <si>
+    <t>820605-1067025</t>
+  </si>
+  <si>
+    <t>수노을1로 192</t>
+  </si>
+  <si>
+    <t>704-7101</t>
+  </si>
+  <si>
+    <t>김건희</t>
+  </si>
+  <si>
+    <t>151028-3200113</t>
+  </si>
+  <si>
+    <t>사동1384-14</t>
+  </si>
+  <si>
+    <t>gs골드빌A동501</t>
+  </si>
+  <si>
+    <t>나혜주</t>
+  </si>
+  <si>
+    <t>830726-2030327</t>
+  </si>
+  <si>
+    <t>공무원</t>
   </si>
 </sst>
 </file>
@@ -466,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +639,193 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1023929050</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>402</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1075629333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1092685902</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1028880726</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1028880726</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kunhee\Desktop\kdca-covid19-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534C4C53-66C9-4F47-ACBC-33E43FDFE78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A48F42-8FEE-4216-A9BC-4F4329097BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="13572" windowHeight="8268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>성명</t>
   </si>
@@ -104,81 +104,6 @@
   </si>
   <si>
     <t>환자소속기관명</t>
-  </si>
-  <si>
-    <t>KANG XIN</t>
-  </si>
-  <si>
-    <t>860402-5760033</t>
-  </si>
-  <si>
-    <t>각골로33</t>
-  </si>
-  <si>
-    <t>중국</t>
-  </si>
-  <si>
-    <t>2020 12 25</t>
-  </si>
-  <si>
-    <t>2021 01 07</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>권회태</t>
-  </si>
-  <si>
-    <t>아랍에미리트</t>
-  </si>
-  <si>
-    <t>0000 00 00</t>
-  </si>
-  <si>
-    <t>박복순</t>
-  </si>
-  <si>
-    <t>560505-6820036</t>
-  </si>
-  <si>
-    <t>각골로 3길 8</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>안윤식</t>
-  </si>
-  <si>
-    <t>820605-1067025</t>
-  </si>
-  <si>
-    <t>수노을1로 192</t>
-  </si>
-  <si>
-    <t>704-7101</t>
-  </si>
-  <si>
-    <t>김건희</t>
-  </si>
-  <si>
-    <t>151028-3200113</t>
-  </si>
-  <si>
-    <t>사동1384-14</t>
-  </si>
-  <si>
-    <t>gs골드빌A동501</t>
-  </si>
-  <si>
-    <t>나혜주</t>
-  </si>
-  <si>
-    <t>830726-2030327</t>
-  </si>
-  <si>
-    <t>공무원</t>
   </si>
 </sst>
 </file>
@@ -541,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,193 +564,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1023929050</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>402</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1075629333</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1092685902</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1028880726</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1028880726</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
